--- a/spring/Archivos/Prueba proveedor.xlsx
+++ b/spring/Archivos/Prueba proveedor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Documents\ESCOM\TT\TT2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{22D8B3FE-4C5C-40C2-A68D-A663DFE1CD18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89B10DC-CD6A-48E0-B6D6-278DC98948B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15660" yWindow="2760" windowWidth="28800" windowHeight="15435" xr2:uid="{125E69DC-7217-43FD-B5ED-EE6FD699303B}"/>
+    <workbookView xWindow="9600" yWindow="2760" windowWidth="28800" windowHeight="15435" xr2:uid="{125E69DC-7217-43FD-B5ED-EE6FD699303B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
     <t>Nombre</t>
   </si>
@@ -93,6 +93,33 @@
   </si>
   <si>
     <t>10x12x24</t>
+  </si>
+  <si>
+    <t>Clave de producto</t>
+  </si>
+  <si>
+    <t>g1</t>
+  </si>
+  <si>
+    <t>a1</t>
+  </si>
+  <si>
+    <t>c1</t>
+  </si>
+  <si>
+    <t>m1</t>
+  </si>
+  <si>
+    <t>v1</t>
+  </si>
+  <si>
+    <t>r1</t>
+  </si>
+  <si>
+    <t>bp1</t>
+  </si>
+  <si>
+    <t>bl1</t>
   </si>
 </sst>
 </file>
@@ -444,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{076CA25E-658D-4BAB-B5A1-1ECE7E45C5E6}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -455,131 +482,160 @@
     <col min="1" max="1" width="19.42578125" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
       <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="D2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
       <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="D3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
       <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="D4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>14</v>
       </c>
-      <c r="D5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>15</v>
       </c>
-      <c r="D6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>19</v>
       </c>
-      <c r="D7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
         <v>17</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>16</v>
       </c>
-      <c r="D8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>11</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>16</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>10</v>
       </c>
     </row>
